--- a/Copy of WH DASHBOARD CONCEPT.xlsx
+++ b/Copy of WH DASHBOARD CONCEPT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12435" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="DASHBOARD SECURITY" sheetId="2" r:id="rId1"/>
@@ -787,7 +787,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -831,13 +831,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -852,7 +845,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -898,11 +891,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -955,12 +943,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1023,21 +1010,20 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="3" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Calculation" xfId="4" builtinId="22"/>
+  <cellStyles count="4">
+    <cellStyle name="Calculation" xfId="3" builtinId="22"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1427,7 +1413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -2859,8 +2845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2946,73 +2932,73 @@
       <c r="A2" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="31" t="s">
         <v>143</v>
       </c>
       <c r="F2" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="N2" s="30" t="s">
+      <c r="N2" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="O2" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="P2" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="Q2" s="32" t="s">
+      <c r="Q2" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="R2" s="32" t="s">
+      <c r="R2" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="S2" s="32" t="s">
+      <c r="S2" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="T2" s="32" t="s">
+      <c r="T2" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="U2" s="32" t="s">
+      <c r="U2" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="V2" s="32" t="s">
+      <c r="V2" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="W2" s="30" t="s">
+      <c r="W2" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="X2" s="32" t="s">
+      <c r="X2" s="31" t="s">
         <v>178</v>
       </c>
     </row>

--- a/Copy of WH DASHBOARD CONCEPT.xlsx
+++ b/Copy of WH DASHBOARD CONCEPT.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\dhlcms\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DASHBOARD SECURITY" sheetId="2" r:id="rId1"/>
@@ -23,9 +18,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DASHBOARD SECURITY'!$A$14:$J$14</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -786,8 +781,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1191,7 +1186,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1226,7 +1221,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1403,21 +1398,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
@@ -1432,7 +1427,7 @@
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1440,7 +1435,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -1452,7 +1447,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
@@ -1487,7 +1482,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1522,7 +1517,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1557,7 +1552,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
@@ -1592,7 +1587,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1627,7 +1622,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1662,7 +1657,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
@@ -1696,7 +1691,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -1730,11 +1725,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -1746,7 +1741,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="8" t="s">
         <v>1</v>
       </c>
@@ -1781,7 +1776,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1816,7 +1811,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1851,7 +1846,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
@@ -1882,7 +1877,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1915,14 +1910,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
@@ -1937,7 +1932,7 @@
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1949,7 +1944,7 @@
       </c>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -1984,7 +1979,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2019,7 +2014,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -2054,7 +2049,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2089,7 +2084,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -2123,11 +2118,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -2139,7 +2134,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="8" t="s">
         <v>1</v>
       </c>
@@ -2174,7 +2169,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -2205,7 +2200,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -2237,31 +2232,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>22</v>
       </c>
@@ -2272,7 +2267,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2283,7 +2278,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2294,7 +2289,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -2305,12 +2300,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -2321,7 +2316,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2332,7 +2327,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2343,7 +2338,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -2354,7 +2349,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>4</v>
       </c>
@@ -2365,12 +2360,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -2381,7 +2376,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2392,7 +2387,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2403,7 +2398,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>3</v>
       </c>
@@ -2414,7 +2409,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>4</v>
       </c>
@@ -2425,7 +2420,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>5</v>
       </c>
@@ -2436,7 +2431,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>6</v>
       </c>
@@ -2447,12 +2442,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
         <v>22</v>
       </c>
@@ -2463,7 +2458,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2474,7 +2469,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -2485,7 +2480,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>3</v>
       </c>
@@ -2496,12 +2491,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
         <v>22</v>
       </c>
@@ -2512,7 +2507,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>1</v>
       </c>
@@ -2523,7 +2518,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>2</v>
       </c>
@@ -2534,7 +2529,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2552,21 +2547,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="59" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
         <v>139</v>
       </c>
@@ -2577,7 +2572,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="13" t="s">
         <v>112</v>
       </c>
@@ -2588,7 +2583,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="13" t="s">
         <v>113</v>
       </c>
@@ -2599,7 +2594,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="13" t="s">
         <v>114</v>
       </c>
@@ -2610,7 +2605,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="13" t="s">
         <v>115</v>
       </c>
@@ -2621,7 +2616,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="13" t="s">
         <v>116</v>
       </c>
@@ -2632,7 +2627,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="13" t="s">
         <v>117</v>
       </c>
@@ -2643,7 +2638,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="13" t="s">
         <v>121</v>
       </c>
@@ -2654,7 +2649,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="13" t="s">
         <v>118</v>
       </c>
@@ -2665,7 +2660,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="13" t="s">
         <v>119</v>
       </c>
@@ -2676,7 +2671,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="13" t="s">
         <v>120</v>
       </c>
@@ -2687,12 +2682,12 @@
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="9" t="s">
         <v>147</v>
       </c>
@@ -2703,7 +2698,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="13" t="s">
         <v>122</v>
       </c>
@@ -2714,7 +2709,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="13" t="s">
         <v>123</v>
       </c>
@@ -2725,7 +2720,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="13" t="s">
         <v>124</v>
       </c>
@@ -2736,7 +2731,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="13" t="s">
         <v>125</v>
       </c>
@@ -2747,7 +2742,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="13" t="s">
         <v>126</v>
       </c>
@@ -2758,7 +2753,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="13" t="s">
         <v>117</v>
       </c>
@@ -2769,7 +2764,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="13" t="s">
         <v>121</v>
       </c>
@@ -2780,7 +2775,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="13" t="s">
         <v>118</v>
       </c>
@@ -2791,7 +2786,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="13" t="s">
         <v>119</v>
       </c>
@@ -2802,7 +2797,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="13" t="s">
         <v>127</v>
       </c>
@@ -2813,7 +2808,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="13" t="s">
         <v>21</v>
       </c>
@@ -2824,7 +2819,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="13" t="s">
         <v>128</v>
       </c>
@@ -2842,19 +2837,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="24" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24">
       <c r="A1" s="15" t="s">
         <v>166</v>
       </c>
@@ -2928,7 +2923,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="16" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="16" customFormat="1" ht="75">
       <c r="A2" s="18" t="s">
         <v>167</v>
       </c>
@@ -3008,20 +3003,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="20" t="s">
         <v>189</v>
       </c>
@@ -3029,7 +3024,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -3037,7 +3032,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -3045,7 +3040,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -3053,7 +3048,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -3061,7 +3056,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="19">
         <v>5</v>
       </c>
@@ -3069,7 +3064,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -3077,7 +3072,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="19">
         <v>7</v>
       </c>
@@ -3085,7 +3080,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="19">
         <v>8</v>
       </c>
@@ -3093,7 +3088,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="19">
         <v>9</v>
       </c>
@@ -3108,7 +3103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3118,7 +3113,7 @@
       <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.28515625" customWidth="1"/>
@@ -3136,7 +3131,7 @@
     <col min="14" max="14" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="24" t="s">
         <v>189</v>
       </c>
@@ -3180,7 +3175,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="21" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="21" customFormat="1" ht="105">
       <c r="A2" s="26">
         <v>1</v>
       </c>
@@ -3212,7 +3207,7 @@
       </c>
       <c r="N2" s="22"/>
     </row>
-    <row r="3" spans="1:14" s="21" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="21" customFormat="1" ht="135">
       <c r="A3" s="26">
         <v>2</v>
       </c>
@@ -3244,7 +3239,7 @@
       </c>
       <c r="N3" s="22"/>
     </row>
-    <row r="4" spans="1:14" s="21" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="21" customFormat="1" ht="135">
       <c r="A4" s="26">
         <v>3</v>
       </c>
@@ -3276,7 +3271,7 @@
       </c>
       <c r="N4" s="22"/>
     </row>
-    <row r="5" spans="1:14" s="21" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="21" customFormat="1" ht="180">
       <c r="A5" s="26">
         <v>4</v>
       </c>
@@ -3308,7 +3303,7 @@
       </c>
       <c r="N5" s="22"/>
     </row>
-    <row r="6" spans="1:14" s="21" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="21" customFormat="1" ht="105">
       <c r="A6" s="27">
         <v>5</v>
       </c>
@@ -3340,7 +3335,7 @@
       </c>
       <c r="N6" s="22"/>
     </row>
-    <row r="7" spans="1:14" s="21" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="21" customFormat="1" ht="105">
       <c r="A7" s="26">
         <v>6</v>
       </c>
@@ -3371,7 +3366,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="21" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="21" customFormat="1" ht="135">
       <c r="A8" s="26">
         <v>7</v>
       </c>
@@ -3403,7 +3398,7 @@
       </c>
       <c r="N8" s="22"/>
     </row>
-    <row r="9" spans="1:14" s="21" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="21" customFormat="1" ht="135">
       <c r="A9" s="26">
         <v>8</v>
       </c>
@@ -3435,7 +3430,7 @@
       </c>
       <c r="N9" s="22"/>
     </row>
-    <row r="10" spans="1:14" s="21" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="21" customFormat="1" ht="180">
       <c r="A10" s="26">
         <v>9</v>
       </c>
@@ -3467,7 +3462,7 @@
       </c>
       <c r="N10" s="22"/>
     </row>
-    <row r="11" spans="1:14" s="21" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="21" customFormat="1" ht="105">
       <c r="A11" s="26">
         <v>10</v>
       </c>
@@ -3499,7 +3494,7 @@
       </c>
       <c r="N11" s="22"/>
     </row>
-    <row r="12" spans="1:14" s="21" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="21" customFormat="1" ht="90">
       <c r="A12" s="26">
         <v>11</v>
       </c>
@@ -3515,7 +3510,7 @@
       </c>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" spans="1:14" s="21" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="21" customFormat="1" ht="135">
       <c r="A13" s="27">
         <v>12</v>
       </c>
@@ -3531,7 +3526,7 @@
       </c>
       <c r="F13" s="22"/>
     </row>
-    <row r="14" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="120">
       <c r="A14" s="27">
         <v>13</v>
       </c>
@@ -3543,7 +3538,7 @@
       </c>
       <c r="H14" s="19"/>
     </row>
-    <row r="15" spans="1:14" s="21" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="21" customFormat="1" ht="150">
       <c r="A15" s="26">
         <v>14</v>
       </c>

--- a/Copy of WH DASHBOARD CONCEPT.xlsx
+++ b/Copy of WH DASHBOARD CONCEPT.xlsx
@@ -1398,7 +1398,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1913,8 +1913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
